--- a/Ton_Task_Test_Cases.xlsx
+++ b/Ton_Task_Test_Cases.xlsx
@@ -67,7 +67,7 @@
 4. Submit the form</t>
   </si>
   <si>
-    <t xml:space="preserve">Email: test1@example.com
+    <t xml:space="preserve">Email: ahmed.maher.tester@gmail.com
 Password: Test@1234
 Birthdate: optional</t>
   </si>
@@ -123,7 +123,7 @@
 3. Submit</t>
   </si>
   <si>
-    <t xml:space="preserve">Email: test1@example.com</t>
+    <t xml:space="preserve">Email: ahmed.maher.tester@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Error message: 'Email already exists'</t>
@@ -224,7 +224,7 @@
 2. Submit login form</t>
   </si>
   <si>
-    <t xml:space="preserve">Email: test1@example.com
+    <t xml:space="preserve">Email: ahmed.maher.tester@gmail.com
 Password: Test@1234</t>
   </si>
   <si>
@@ -247,7 +247,7 @@
 2. Submit login form</t>
   </si>
   <si>
-    <t xml:space="preserve">Email: wrong@example.com
+    <t xml:space="preserve">Email: ahmed.ahmed@gmail.com
 Password: wrongpass</t>
   </si>
   <si>
@@ -659,16 +659,8 @@
     <t xml:space="preserve">App should display an error “please select a task type”</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nothing happens, and user is stuck on the same screen with no feedback
+    <t xml:space="preserve">Nothing happens, and user is stuck on the same screen with no feedback
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Create a new one time task </t>
@@ -761,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">File: profile.jpg (500KB, JPG) </t>
+    <t xml:space="preserve">File: profile.jpg </t>
   </si>
   <si>
     <t xml:space="preserve">Profile image should be updated and displayed immediately across the app </t>
@@ -812,7 +804,7 @@
 5.Click Submit </t>
   </si>
   <si>
-    <t xml:space="preserve">Validation error should appear (e.g., "Date is required") </t>
+    <t xml:space="preserve">Validation error should appear ("Date is required") </t>
   </si>
   <si>
     <t xml:space="preserve">Task is created and saved with empty date </t>
@@ -825,7 +817,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,24 +854,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -938,7 +912,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -963,7 +937,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -975,31 +949,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1197,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,7 +1169,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="66.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.29"/>
@@ -1449,7 +1411,7 @@
       <c r="F8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -1571,7 +1533,7 @@
       <c r="F12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -1655,7 +1617,7 @@
       <c r="C15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1888,7 +1850,7 @@
       <c r="F22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="4" t="s">
         <v>142</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -2039,7 +2001,7 @@
       <c r="F27" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="3" t="s">
         <v>182</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -2097,7 +2059,7 @@
       <c r="F29" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="8" t="s">
         <v>195</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -2120,7 +2082,7 @@
       <c r="C30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2178,16 +2140,16 @@
       <c r="C32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>212</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="4" t="s">
         <v>215</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -2210,7 +2172,7 @@
       <c r="C33" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>220</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -2219,7 +2181,7 @@
       <c r="F33" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="11" t="s">
         <v>223</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -2242,13 +2204,13 @@
       <c r="C34" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="8" t="s">
         <v>228</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="8" t="s">
         <v>230</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -2268,13 +2230,13 @@
       <c r="B35" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="4" t="s">
         <v>235</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -2288,6 +2250,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="ahmed.maher.tester@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId2" display="ahmed.maher.tester@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId3" display="ahmed.maher.tester@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Ton_Task_Test_Cases.xlsx
+++ b/Ton_Task_Test_Cases.xlsx
@@ -67,9 +67,10 @@
 4. Submit the form</t>
   </si>
   <si>
-    <t xml:space="preserve">Email: ahmed.maher.tester@gmail.com
-Password: Test@1234
-Birthdate: optional</t>
+    <t xml:space="preserve">
+Email : ahmed.maher.tester@gmail.com
+Password:Test@1234
+Birthdate:optional</t>
   </si>
   <si>
     <t xml:space="preserve">New account is created and user is redirected to dashboard</t>
@@ -1159,8 +1160,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1169,7 +1170,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="70.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="66.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.29"/>
@@ -2251,9 +2252,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="ahmed.maher.tester@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId2" display="ahmed.maher.tester@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId3" display="ahmed.maher.tester@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="Email: ahmed.maher.tester@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId2" display="Email: ahmed.maher.tester@gmail.com&#10;Password: Test@1234"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
